--- a/dataviz/df_book_visuel1_table.xlsx
+++ b/dataviz/df_book_visuel1_table.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,45 +485,50 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>pages lues à la minute</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>% lu</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Commencé</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Terminé</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Durée lecture (j)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>jours de lecture effectifs (jl)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t># pages lues/jl</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>minutes de lecture/jl</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Temps de lecture h:m/jl</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Temps de lecture total (hh:mm:ss)</t>
         </is>
@@ -570,36 +575,39 @@
         <v>54</v>
       </c>
       <c r="J2" t="n">
+        <v>1.0980073200488</v>
+      </c>
+      <c r="K2" t="n">
         <v>14</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>2024-10-27</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2024-11-01</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>6</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>3</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>18</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>16.4</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>0:16</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>0:49:11</t>
         </is>
@@ -646,36 +654,39 @@
         <v>249</v>
       </c>
       <c r="J3" t="n">
+        <v>1.744674887892377</v>
+      </c>
+      <c r="K3" t="n">
         <v>100</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>2024-10-23</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2024-10-27</t>
         </is>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
       </c>
       <c r="N3" t="n">
         <v>5</v>
       </c>
       <c r="O3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P3" t="n">
         <v>49.8</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>28.5</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>0:28</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>2:22:43</t>
         </is>
@@ -722,36 +733,39 @@
         <v>422</v>
       </c>
       <c r="J4" t="n">
+        <v>1.137772984631976</v>
+      </c>
+      <c r="K4" t="n">
         <v>100</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>2024-10-08</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2024-10-23</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>16</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>13</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>32.5</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>28.5</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>0:28</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>6:10:54</t>
         </is>
@@ -798,36 +812,39 @@
         <v>206</v>
       </c>
       <c r="J5" t="n">
+        <v>1.441870231679149</v>
+      </c>
+      <c r="K5" t="n">
         <v>100</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>2024-10-03</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>2024-10-08</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>6</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>5</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>41.2</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>28.6</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>0:28</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>2:22:52</t>
         </is>
@@ -874,36 +891,39 @@
         <v>487</v>
       </c>
       <c r="J6" t="n">
+        <v>1.382540809084457</v>
+      </c>
+      <c r="K6" t="n">
         <v>100</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>2024-09-29</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>2024-10-03</t>
         </is>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
       </c>
       <c r="N6" t="n">
         <v>5</v>
       </c>
       <c r="O6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>1:10</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>5:52:15</t>
         </is>
@@ -950,36 +970,39 @@
         <v>779</v>
       </c>
       <c r="J7" t="n">
+        <v>1.735933147632312</v>
+      </c>
+      <c r="K7" t="n">
         <v>100</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>2024-09-23</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>2024-09-29</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>7</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>6</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>129.8</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>74.8</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>1:15</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>7:28:45</t>
         </is>
@@ -1026,36 +1049,39 @@
         <v>135</v>
       </c>
       <c r="J8" t="n">
+        <v>1.399688958009331</v>
+      </c>
+      <c r="K8" t="n">
         <v>100</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>2024-09-09</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>2024-09-17</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>9</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>5</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>27</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>19.3</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>0:19</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>1:36:27</t>
         </is>
@@ -1098,36 +1124,39 @@
         <v>467</v>
       </c>
       <c r="J9" t="n">
+        <v>1.313901471457108</v>
+      </c>
+      <c r="K9" t="n">
         <v>100</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>2024-08-20</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>2024-09-09</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>21</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>16</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>29.2</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>22.2</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>0:22</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>5:55:26</t>
         </is>
@@ -1174,36 +1203,39 @@
         <v>208</v>
       </c>
       <c r="J10" t="n">
+        <v>1.319629488643573</v>
+      </c>
+      <c r="K10" t="n">
         <v>92</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>2024-08-14</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>2024-08-20</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>7</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>5</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>41.6</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>31.5</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>0:31</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>2:37:37</t>
         </is>
@@ -1250,36 +1282,39 @@
         <v>234</v>
       </c>
       <c r="J11" t="n">
+        <v>1.451432824711574</v>
+      </c>
+      <c r="K11" t="n">
         <v>100</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>2024-08-11</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>2024-08-14</t>
         </is>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
       </c>
       <c r="N11" t="n">
         <v>4</v>
       </c>
       <c r="O11" t="n">
+        <v>4</v>
+      </c>
+      <c r="P11" t="n">
         <v>58.5</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>40.3</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>0:40</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>2:41:13</t>
         </is>
@@ -1326,36 +1361,39 @@
         <v>815</v>
       </c>
       <c r="J12" t="n">
+        <v>1.091352205468813</v>
+      </c>
+      <c r="K12" t="n">
         <v>100</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>2024-08-03</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>2024-08-11</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>9</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>8</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>101.9</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>93.3</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>1:33</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>12:26:47</t>
         </is>
@@ -1398,36 +1436,39 @@
         <v>7</v>
       </c>
       <c r="J13" t="n">
+        <v>4.45859872611465</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>2024-08-03</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>2024-08-08</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>6</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>2</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>3.5</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>0.8</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>0:00</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>0:01:34</t>
         </is>
@@ -1470,20 +1511,20 @@
         <v>4</v>
       </c>
       <c r="J14" t="n">
+        <v>1.111111111111111</v>
+      </c>
+      <c r="K14" t="n">
         <v>7</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>2024-08-02</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>2024-08-03</t>
         </is>
-      </c>
-      <c r="M14" t="n">
-        <v>2</v>
       </c>
       <c r="N14" t="n">
         <v>2</v>
@@ -1492,14 +1533,17 @@
         <v>2</v>
       </c>
       <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>0:01</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>0:03:36</t>
         </is>
@@ -1542,36 +1586,39 @@
         <v>458</v>
       </c>
       <c r="J15" t="n">
+        <v>1.700200460316282</v>
+      </c>
+      <c r="K15" t="n">
         <v>100</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>2024-07-29</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>2024-08-02</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>5</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>4</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>114.5</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>67.3</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>1:07</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>4:29:23</t>
         </is>
@@ -1614,36 +1661,39 @@
         <v>768</v>
       </c>
       <c r="J16" t="n">
+        <v>1.756552765198298</v>
+      </c>
+      <c r="K16" t="n">
         <v>100</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>2012-05-01</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>2024-07-29</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>4473</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>11</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>69.8</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>39.7</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>0:39</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>7:17:13</t>
         </is>
@@ -1686,36 +1736,39 @@
         <v>387</v>
       </c>
       <c r="J17" t="n">
+        <v>1.372437761543372</v>
+      </c>
+      <c r="K17" t="n">
         <v>100</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>2012-05-01</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>2024-07-18</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>4462</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>11</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>35.2</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>25.6</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>0:25</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>4:41:59</t>
         </is>
@@ -1762,20 +1815,20 @@
         <v>1</v>
       </c>
       <c r="J18" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="K18" t="n">
         <v>0</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>2024-07-07</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>2024-07-07</t>
         </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
       </c>
       <c r="N18" t="n">
         <v>1</v>
@@ -1784,14 +1837,17 @@
         <v>1</v>
       </c>
       <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>0:01</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>0:01:48</t>
         </is>
@@ -1834,36 +1890,39 @@
         <v>325</v>
       </c>
       <c r="J19" t="n">
+        <v>1.708278580814717</v>
+      </c>
+      <c r="K19" t="n">
         <v>100</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>2024-06-30</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>2024-07-07</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>8</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>7</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>46.4</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>27.2</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>0:27</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>3:10:15</t>
         </is>
@@ -1906,36 +1965,39 @@
         <v>4</v>
       </c>
       <c r="J20" t="n">
+        <v>3.252032520325203</v>
+      </c>
+      <c r="K20" t="n">
         <v>1</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>2024-06-30</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>2024-06-30</t>
         </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>1</v>
       </c>
       <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
         <v>4</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>1.2</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>0:01</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>0:01:14</t>
         </is>
@@ -1978,36 +2040,39 @@
         <v>435</v>
       </c>
       <c r="J21" t="n">
+        <v>1.493562231759657</v>
+      </c>
+      <c r="K21" t="n">
         <v>100</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>2024-06-29</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>9</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>6</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>72.5</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>48.5</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>0:48</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>4:51:15</t>
         </is>
@@ -2050,36 +2115,39 @@
         <v>25</v>
       </c>
       <c r="J22" t="n">
+        <v>1.73370319001387</v>
+      </c>
+      <c r="K22" t="n">
         <v>5</v>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>1</v>
       </c>
       <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
         <v>25</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>14.4</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>0:14</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>0:14:25</t>
         </is>
@@ -2122,36 +2190,39 @@
         <v>153</v>
       </c>
       <c r="J23" t="n">
+        <v>1.257189811010682</v>
+      </c>
+      <c r="K23" t="n">
         <v>100</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>2024-06-18</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>2024-06-20</t>
         </is>
-      </c>
-      <c r="M23" t="n">
-        <v>3</v>
       </c>
       <c r="N23" t="n">
         <v>3</v>
       </c>
       <c r="O23" t="n">
+        <v>3</v>
+      </c>
+      <c r="P23" t="n">
         <v>51</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>40.6</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>0:40</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>2:01:42</t>
         </is>
@@ -2194,36 +2265,39 @@
         <v>266</v>
       </c>
       <c r="J24" t="n">
+        <v>1.654949293846824</v>
+      </c>
+      <c r="K24" t="n">
         <v>100</v>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>2024-06-11</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>2024-06-16</t>
         </is>
-      </c>
-      <c r="M24" t="n">
-        <v>6</v>
       </c>
       <c r="N24" t="n">
         <v>6</v>
       </c>
       <c r="O24" t="n">
+        <v>6</v>
+      </c>
+      <c r="P24" t="n">
         <v>44.3</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>26.8</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>0:27</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>2:40:44</t>
         </is>
@@ -2270,36 +2344,39 @@
         <v>7</v>
       </c>
       <c r="J25" t="n">
+        <v>1.573033707865168</v>
+      </c>
+      <c r="K25" t="n">
         <v>1</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>2024-06-10</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>2024-06-11</t>
         </is>
-      </c>
-      <c r="M25" t="n">
-        <v>2</v>
       </c>
       <c r="N25" t="n">
         <v>2</v>
       </c>
       <c r="O25" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" t="n">
         <v>3.5</v>
       </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
         <v>2.2</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>0:02</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>0:04:27</t>
         </is>
@@ -2342,36 +2419,39 @@
         <v>82</v>
       </c>
       <c r="J26" t="n">
+        <v>1.528994965504382</v>
+      </c>
+      <c r="K26" t="n">
         <v>100</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>2024-06-10</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>2024-06-10</t>
         </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
       </c>
       <c r="N26" t="n">
         <v>1</v>
       </c>
       <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
         <v>82</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
         <v>53.6</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>0:53</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>0:53:38</t>
         </is>
@@ -2414,20 +2494,20 @@
         <v>1</v>
       </c>
       <c r="J27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K27" t="n">
         <v>100</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>2024-06-10</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>2024-06-10</t>
         </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
       </c>
       <c r="N27" t="n">
         <v>1</v>
@@ -2436,14 +2516,17 @@
         <v>1</v>
       </c>
       <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
         <v>0.1</v>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>0:00</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>0:00:05</t>
         </is>
@@ -2486,36 +2569,39 @@
         <v>46</v>
       </c>
       <c r="J28" t="n">
+        <v>1.093155893536122</v>
+      </c>
+      <c r="K28" t="n">
         <v>79</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>2024-06-07</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>2024-06-10</t>
         </is>
-      </c>
-      <c r="M28" t="n">
-        <v>4</v>
       </c>
       <c r="N28" t="n">
         <v>4</v>
       </c>
       <c r="O28" t="n">
+        <v>4</v>
+      </c>
+      <c r="P28" t="n">
         <v>11.5</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
         <v>10.5</v>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>0:10</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>0:42:05</t>
         </is>
@@ -2558,36 +2644,39 @@
         <v>17</v>
       </c>
       <c r="J29" t="n">
+        <v>1.223021582733813</v>
+      </c>
+      <c r="K29" t="n">
         <v>2</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>2024-06-07</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>93</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>3</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>5.7</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
         <v>4.6</v>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>0:04</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>0:13:54</t>
         </is>
@@ -2634,36 +2723,39 @@
         <v>47</v>
       </c>
       <c r="J30" t="n">
+        <v>1.085951940850277</v>
+      </c>
+      <c r="K30" t="n">
         <v>6</v>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>2024-06-02</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>2024-06-07</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>6</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>4</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>11.8</v>
       </c>
-      <c r="P30" t="n">
+      <c r="Q30" t="n">
         <v>10.8</v>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>0:10</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>0:43:17</t>
         </is>
@@ -2706,36 +2798,39 @@
         <v>546</v>
       </c>
       <c r="J31" t="n">
+        <v>1.705557117421048</v>
+      </c>
+      <c r="K31" t="n">
         <v>100</v>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>2024-05-27</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>2024-06-02</t>
         </is>
-      </c>
-      <c r="M31" t="n">
-        <v>7</v>
       </c>
       <c r="N31" t="n">
         <v>7</v>
       </c>
       <c r="O31" t="n">
+        <v>7</v>
+      </c>
+      <c r="P31" t="n">
         <v>78</v>
       </c>
-      <c r="P31" t="n">
+      <c r="Q31" t="n">
         <v>45.7</v>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>0:45</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>5:20:08</t>
         </is>
@@ -2778,36 +2873,39 @@
         <v>447</v>
       </c>
       <c r="J32" t="n">
+        <v>1.679945880938064</v>
+      </c>
+      <c r="K32" t="n">
         <v>100</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>2024-05-25</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>2024-05-27</t>
         </is>
-      </c>
-      <c r="M32" t="n">
-        <v>3</v>
       </c>
       <c r="N32" t="n">
         <v>3</v>
       </c>
       <c r="O32" t="n">
+        <v>3</v>
+      </c>
+      <c r="P32" t="n">
         <v>149</v>
       </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
         <v>88.7</v>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>1:28</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>4:26:05</t>
         </is>
@@ -2850,36 +2948,39 @@
         <v>741</v>
       </c>
       <c r="J33" t="n">
+        <v>1.676660255685032</v>
+      </c>
+      <c r="K33" t="n">
         <v>100</v>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>2024-05-15</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>2024-05-24</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>10</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>9</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>82.3</v>
       </c>
-      <c r="P33" t="n">
+      <c r="Q33" t="n">
         <v>49.1</v>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>0:49</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>7:21:57</t>
         </is>
@@ -2926,36 +3027,39 @@
         <v>708</v>
       </c>
       <c r="J34" t="n">
+        <v>1.387636705734781</v>
+      </c>
+      <c r="K34" t="n">
         <v>100</v>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>2024-05-03</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>2024-05-15</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>13</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>12</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>59</v>
       </c>
-      <c r="P34" t="n">
+      <c r="Q34" t="n">
         <v>42.5</v>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>0:42</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>8:30:13</t>
         </is>
@@ -3002,36 +3106,39 @@
         <v>260</v>
       </c>
       <c r="J35" t="n">
+        <v>1.134133042529989</v>
+      </c>
+      <c r="K35" t="n">
         <v>100</v>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>2024-04-28</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>2024-05-03</t>
         </is>
-      </c>
-      <c r="M35" t="n">
-        <v>6</v>
       </c>
       <c r="N35" t="n">
         <v>6</v>
       </c>
       <c r="O35" t="n">
+        <v>6</v>
+      </c>
+      <c r="P35" t="n">
         <v>43.3</v>
       </c>
-      <c r="P35" t="n">
+      <c r="Q35" t="n">
         <v>38.2</v>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>0:38</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>3:49:15</t>
         </is>
@@ -3078,20 +3185,20 @@
         <v>1</v>
       </c>
       <c r="J36" t="n">
+        <v>4.347826086956522</v>
+      </c>
+      <c r="K36" t="n">
         <v>0</v>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>2024-04-28</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>2024-04-28</t>
         </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
       </c>
       <c r="N36" t="n">
         <v>1</v>
@@ -3100,14 +3207,17 @@
         <v>1</v>
       </c>
       <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>0:00</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>0:00:14</t>
         </is>
@@ -3150,36 +3260,39 @@
         <v>419</v>
       </c>
       <c r="J37" t="n">
+        <v>1.397971440010676</v>
+      </c>
+      <c r="K37" t="n">
         <v>100</v>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>2024-04-22</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>2024-04-28</t>
         </is>
-      </c>
-      <c r="M37" t="n">
-        <v>7</v>
       </c>
       <c r="N37" t="n">
         <v>7</v>
       </c>
       <c r="O37" t="n">
+        <v>7</v>
+      </c>
+      <c r="P37" t="n">
         <v>59.9</v>
       </c>
-      <c r="P37" t="n">
+      <c r="Q37" t="n">
         <v>42.8</v>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>0:42</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>4:59:43</t>
         </is>
@@ -3222,36 +3335,39 @@
         <v>484</v>
       </c>
       <c r="J38" t="n">
+        <v>1.27890077949531</v>
+      </c>
+      <c r="K38" t="n">
         <v>85</v>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>2024-04-08</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>2024-04-22</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>15</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>13</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
         <v>37.2</v>
       </c>
-      <c r="P38" t="n">
+      <c r="Q38" t="n">
         <v>29.1</v>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>0:29</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>6:18:27</t>
         </is>
@@ -3294,36 +3410,39 @@
         <v>870</v>
       </c>
       <c r="J39" t="n">
+        <v>1.400244640442928</v>
+      </c>
+      <c r="K39" t="n">
         <v>100</v>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>2024-03-19</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>2024-04-08</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>21</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>20</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
         <v>43.5</v>
       </c>
-      <c r="P39" t="n">
+      <c r="Q39" t="n">
         <v>31.1</v>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>0:31</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>10:21:19</t>
         </is>
@@ -3366,36 +3485,39 @@
         <v>383</v>
       </c>
       <c r="J40" t="n">
+        <v>2.044083898169398</v>
+      </c>
+      <c r="K40" t="n">
         <v>100</v>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>2024-03-18</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>2024-03-19</t>
         </is>
-      </c>
-      <c r="M40" t="n">
-        <v>2</v>
       </c>
       <c r="N40" t="n">
         <v>2</v>
       </c>
       <c r="O40" t="n">
+        <v>2</v>
+      </c>
+      <c r="P40" t="n">
         <v>191.5</v>
       </c>
-      <c r="P40" t="n">
+      <c r="Q40" t="n">
         <v>93.7</v>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>1:33</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>3:07:22</t>
         </is>
@@ -3438,36 +3560,39 @@
         <v>41</v>
       </c>
       <c r="J41" t="n">
+        <v>0.9586158522328735</v>
+      </c>
+      <c r="K41" t="n">
         <v>12</v>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>2024-03-12</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>2024-03-18</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>7</v>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" t="n">
         <v>4</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>10.2</v>
       </c>
-      <c r="P41" t="n">
+      <c r="Q41" t="n">
         <v>10.7</v>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>0:10</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>0:42:46</t>
         </is>
@@ -3514,36 +3639,39 @@
         <v>21</v>
       </c>
       <c r="J42" t="n">
+        <v>0.7700770077007701</v>
+      </c>
+      <c r="K42" t="n">
         <v>3</v>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>2024-03-10</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>2024-03-12</t>
         </is>
-      </c>
-      <c r="M42" t="n">
-        <v>3</v>
       </c>
       <c r="N42" t="n">
         <v>3</v>
       </c>
       <c r="O42" t="n">
+        <v>3</v>
+      </c>
+      <c r="P42" t="n">
         <v>7</v>
       </c>
-      <c r="P42" t="n">
+      <c r="Q42" t="n">
         <v>9.1</v>
       </c>
-      <c r="Q42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>0:09</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>0:27:16</t>
         </is>
@@ -3590,36 +3718,39 @@
         <v>13</v>
       </c>
       <c r="J43" t="n">
+        <v>1.27826941986234</v>
+      </c>
+      <c r="K43" t="n">
         <v>3</v>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>2024-03-09</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>2024-03-10</t>
         </is>
-      </c>
-      <c r="M43" t="n">
-        <v>2</v>
       </c>
       <c r="N43" t="n">
         <v>2</v>
       </c>
       <c r="O43" t="n">
+        <v>2</v>
+      </c>
+      <c r="P43" t="n">
         <v>6.5</v>
       </c>
-      <c r="P43" t="n">
+      <c r="Q43" t="n">
         <v>5.1</v>
       </c>
-      <c r="Q43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>0:04</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>0:10:10</t>
         </is>
@@ -3662,36 +3793,39 @@
         <v>12</v>
       </c>
       <c r="J44" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="K44" t="n">
         <v>3</v>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>2024-03-09</t>
         </is>
-      </c>
-      <c r="M44" t="n">
-        <v>2</v>
       </c>
       <c r="N44" t="n">
         <v>2</v>
       </c>
       <c r="O44" t="n">
+        <v>2</v>
+      </c>
+      <c r="P44" t="n">
         <v>6</v>
       </c>
-      <c r="P44" t="n">
+      <c r="Q44" t="n">
         <v>6.2</v>
       </c>
-      <c r="Q44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>0:06</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>0:12:30</t>
         </is>
@@ -3734,36 +3868,39 @@
         <v>329</v>
       </c>
       <c r="J45" t="n">
+        <v>1.185585585585586</v>
+      </c>
+      <c r="K45" t="n">
         <v>100</v>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>2024-02-29</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
-      </c>
-      <c r="M45" t="n">
-        <v>8</v>
       </c>
       <c r="N45" t="n">
         <v>8</v>
       </c>
       <c r="O45" t="n">
+        <v>8</v>
+      </c>
+      <c r="P45" t="n">
         <v>41.1</v>
       </c>
-      <c r="P45" t="n">
+      <c r="Q45" t="n">
         <v>34.7</v>
       </c>
-      <c r="Q45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>0:34</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>4:37:30</t>
         </is>
@@ -3806,36 +3943,39 @@
         <v>407</v>
       </c>
       <c r="J46" t="n">
+        <v>1.720930232558139</v>
+      </c>
+      <c r="K46" t="n">
         <v>86</v>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>2024-02-27</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>2024-03-01</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>4</v>
       </c>
-      <c r="N46" t="n">
+      <c r="O46" t="n">
         <v>3</v>
       </c>
-      <c r="O46" t="n">
+      <c r="P46" t="n">
         <v>135.7</v>
       </c>
-      <c r="P46" t="n">
+      <c r="Q46" t="n">
         <v>78.8</v>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>1:18</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>3:56:30</t>
         </is>
@@ -3878,36 +4018,39 @@
         <v>625</v>
       </c>
       <c r="J47" t="n">
+        <v>1.432730440364028</v>
+      </c>
+      <c r="K47" t="n">
         <v>100</v>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>2024-02-22</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>2024-02-29</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>8</v>
       </c>
-      <c r="N47" t="n">
+      <c r="O47" t="n">
         <v>5</v>
       </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
         <v>125</v>
       </c>
-      <c r="P47" t="n">
+      <c r="Q47" t="n">
         <v>87.2</v>
       </c>
-      <c r="Q47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>1:27</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>7:16:14</t>
         </is>
@@ -3950,36 +4093,39 @@
         <v>277</v>
       </c>
       <c r="J48" t="n">
+        <v>1.306480520705594</v>
+      </c>
+      <c r="K48" t="n">
         <v>62</v>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>2024-01-19</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>2024-02-25</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>38</v>
       </c>
-      <c r="N48" t="n">
+      <c r="O48" t="n">
         <v>8</v>
       </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
         <v>34.6</v>
       </c>
-      <c r="P48" t="n">
+      <c r="Q48" t="n">
         <v>26.5</v>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>0:26</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>3:32:01</t>
         </is>
@@ -4022,36 +4168,39 @@
         <v>1125</v>
       </c>
       <c r="J49" t="n">
+        <v>1.410393029524228</v>
+      </c>
+      <c r="K49" t="n">
         <v>84</v>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>2024-02-04</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>2024-02-22</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>19</v>
       </c>
-      <c r="N49" t="n">
+      <c r="O49" t="n">
         <v>17</v>
       </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
         <v>66.2</v>
       </c>
-      <c r="P49" t="n">
+      <c r="Q49" t="n">
         <v>46.9</v>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>0:46</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>13:17:39</t>
         </is>
@@ -4094,36 +4243,39 @@
         <v>2</v>
       </c>
       <c r="J50" t="n">
+        <v>3.508771929824562</v>
+      </c>
+      <c r="K50" t="n">
         <v>0</v>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>2024-02-04</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>2024-02-04</t>
         </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
       </c>
       <c r="N50" t="n">
         <v>1</v>
       </c>
       <c r="O50" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" t="n">
         <v>2</v>
       </c>
-      <c r="P50" t="n">
+      <c r="Q50" t="n">
         <v>0.6</v>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>0:00</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>0:00:34</t>
         </is>
@@ -4166,36 +4318,39 @@
         <v>9</v>
       </c>
       <c r="J51" t="n">
+        <v>1.255230125523012</v>
+      </c>
+      <c r="K51" t="n">
         <v>22</v>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>2024-01-31</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>2024-01-31</t>
         </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
       </c>
       <c r="N51" t="n">
         <v>1</v>
       </c>
       <c r="O51" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" t="n">
         <v>9</v>
       </c>
-      <c r="P51" t="n">
+      <c r="Q51" t="n">
         <v>7.2</v>
       </c>
-      <c r="Q51" t="inlineStr">
+      <c r="R51" t="inlineStr">
         <is>
           <t>0:07</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>0:07:10</t>
         </is>
@@ -4242,36 +4397,39 @@
         <v>533</v>
       </c>
       <c r="J52" t="n">
+        <v>1.487289672684655</v>
+      </c>
+      <c r="K52" t="n">
         <v>52</v>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>2024-01-19</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>2024-01-28</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>10</v>
       </c>
-      <c r="N52" t="n">
+      <c r="O52" t="n">
         <v>8</v>
       </c>
-      <c r="O52" t="n">
+      <c r="P52" t="n">
         <v>66.59999999999999</v>
       </c>
-      <c r="P52" t="n">
+      <c r="Q52" t="n">
         <v>44.8</v>
       </c>
-      <c r="Q52" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>0:45</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>5:58:22</t>
         </is>
@@ -4318,36 +4476,39 @@
         <v>414</v>
       </c>
       <c r="J53" t="n">
+        <v>1.218471318833328</v>
+      </c>
+      <c r="K53" t="n">
         <v>91</v>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>2024-01-19</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>11</v>
       </c>
-      <c r="N53" t="n">
+      <c r="O53" t="n">
         <v>8</v>
       </c>
-      <c r="O53" t="n">
+      <c r="P53" t="n">
         <v>51.8</v>
       </c>
-      <c r="P53" t="n">
+      <c r="Q53" t="n">
         <v>42.5</v>
       </c>
-      <c r="Q53" t="inlineStr">
+      <c r="R53" t="inlineStr">
         <is>
           <t>0:42</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr">
+      <c r="S53" t="inlineStr">
         <is>
           <t>5:39:46</t>
         </is>
@@ -4390,36 +4551,39 @@
         <v>263</v>
       </c>
       <c r="J54" t="n">
+        <v>0.9840972871842844</v>
+      </c>
+      <c r="K54" t="n">
         <v>88</v>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>2024-01-14</t>
         </is>
-      </c>
-      <c r="M54" t="n">
-        <v>6</v>
       </c>
       <c r="N54" t="n">
         <v>6</v>
       </c>
       <c r="O54" t="n">
+        <v>6</v>
+      </c>
+      <c r="P54" t="n">
         <v>43.8</v>
       </c>
-      <c r="P54" t="n">
+      <c r="Q54" t="n">
         <v>44.5</v>
       </c>
-      <c r="Q54" t="inlineStr">
+      <c r="R54" t="inlineStr">
         <is>
           <t>0:44</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr">
+      <c r="S54" t="inlineStr">
         <is>
           <t>4:27:15</t>
         </is>
@@ -4462,20 +4626,20 @@
         <v>1</v>
       </c>
       <c r="J55" t="n">
+        <v>1.176470588235294</v>
+      </c>
+      <c r="K55" t="n">
         <v>0</v>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="L55" t="inlineStr">
         <is>
           <t>2024-01-10</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>2024-01-10</t>
         </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
       </c>
       <c r="N55" t="n">
         <v>1</v>
@@ -4484,14 +4648,17 @@
         <v>1</v>
       </c>
       <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
         <v>0.8</v>
       </c>
-      <c r="Q55" t="inlineStr">
+      <c r="R55" t="inlineStr">
         <is>
           <t>0:00</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr">
+      <c r="S55" t="inlineStr">
         <is>
           <t>0:00:51</t>
         </is>
@@ -4534,36 +4701,39 @@
         <v>10</v>
       </c>
       <c r="J56" t="n">
+        <v>1.763668430335097</v>
+      </c>
+      <c r="K56" t="n">
         <v>2</v>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="L56" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
       </c>
       <c r="N56" t="n">
         <v>1</v>
       </c>
       <c r="O56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" t="n">
         <v>10</v>
       </c>
-      <c r="P56" t="n">
+      <c r="Q56" t="n">
         <v>5.7</v>
       </c>
-      <c r="Q56" t="inlineStr">
+      <c r="R56" t="inlineStr">
         <is>
           <t>0:05</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
+      <c r="S56" t="inlineStr">
         <is>
           <t>0:05:40</t>
         </is>
@@ -4610,36 +4780,39 @@
         <v>60</v>
       </c>
       <c r="J57" t="n">
+        <v>0.9460737937559129</v>
+      </c>
+      <c r="K57" t="n">
         <v>13</v>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
-      </c>
-      <c r="M57" t="n">
-        <v>2</v>
       </c>
       <c r="N57" t="n">
         <v>2</v>
       </c>
       <c r="O57" t="n">
+        <v>2</v>
+      </c>
+      <c r="P57" t="n">
         <v>30</v>
       </c>
-      <c r="P57" t="n">
+      <c r="Q57" t="n">
         <v>31.7</v>
       </c>
-      <c r="Q57" t="inlineStr">
+      <c r="R57" t="inlineStr">
         <is>
           <t>0:31</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>1:03:25</t>
         </is>
@@ -4682,36 +4855,39 @@
         <v>418</v>
       </c>
       <c r="J58" t="n">
+        <v>1.391107561235357</v>
+      </c>
+      <c r="K58" t="n">
         <v>62</v>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>2023-12-31</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>10</v>
       </c>
-      <c r="N58" t="n">
+      <c r="O58" t="n">
         <v>8</v>
       </c>
-      <c r="O58" t="n">
+      <c r="P58" t="n">
         <v>52.2</v>
       </c>
-      <c r="P58" t="n">
+      <c r="Q58" t="n">
         <v>37.6</v>
       </c>
-      <c r="Q58" t="inlineStr">
+      <c r="R58" t="inlineStr">
         <is>
           <t>0:37</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>5:00:29</t>
         </is>
@@ -4754,36 +4930,39 @@
         <v>288</v>
       </c>
       <c r="J59" t="n">
+        <v>1.417671671178932</v>
+      </c>
+      <c r="K59" t="n">
         <v>64</v>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>43</v>
       </c>
-      <c r="N59" t="n">
+      <c r="O59" t="n">
         <v>9</v>
       </c>
-      <c r="O59" t="n">
+      <c r="P59" t="n">
         <v>32</v>
       </c>
-      <c r="P59" t="n">
+      <c r="Q59" t="n">
         <v>22.6</v>
       </c>
-      <c r="Q59" t="inlineStr">
+      <c r="R59" t="inlineStr">
         <is>
           <t>0:22</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>3:23:09</t>
         </is>
@@ -4826,20 +5005,20 @@
         <v>1</v>
       </c>
       <c r="J60" t="n">
+        <v>7.692307692307692</v>
+      </c>
+      <c r="K60" t="n">
         <v>0</v>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="L60" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
       </c>
       <c r="N60" t="n">
         <v>1</v>
@@ -4848,14 +5027,17 @@
         <v>1</v>
       </c>
       <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
         <v>0.1</v>
       </c>
-      <c r="Q60" t="inlineStr">
+      <c r="R60" t="inlineStr">
         <is>
           <t>0:00</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr">
+      <c r="S60" t="inlineStr">
         <is>
           <t>0:00:08</t>
         </is>
@@ -4898,20 +5080,20 @@
         <v>1</v>
       </c>
       <c r="J61" t="n">
+        <v>4.347826086956522</v>
+      </c>
+      <c r="K61" t="n">
         <v>2</v>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
       </c>
       <c r="N61" t="n">
         <v>1</v>
@@ -4920,14 +5102,17 @@
         <v>1</v>
       </c>
       <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q61" t="inlineStr">
+      <c r="R61" t="inlineStr">
         <is>
           <t>0:00</t>
         </is>
       </c>
-      <c r="R61" t="inlineStr">
+      <c r="S61" t="inlineStr">
         <is>
           <t>0:00:14</t>
         </is>
@@ -4970,36 +5155,39 @@
         <v>27</v>
       </c>
       <c r="J62" t="n">
+        <v>5.601659751037344</v>
+      </c>
+      <c r="K62" t="n">
         <v>1</v>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>2024-01-08</t>
         </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
       </c>
       <c r="N62" t="n">
         <v>1</v>
       </c>
       <c r="O62" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" t="n">
         <v>27</v>
       </c>
-      <c r="P62" t="n">
+      <c r="Q62" t="n">
         <v>4.8</v>
       </c>
-      <c r="Q62" t="inlineStr">
+      <c r="R62" t="inlineStr">
         <is>
           <t>0:04</t>
         </is>
       </c>
-      <c r="R62" t="inlineStr">
+      <c r="S62" t="inlineStr">
         <is>
           <t>0:04:49</t>
         </is>
@@ -5042,36 +5230,39 @@
         <v>8</v>
       </c>
       <c r="J63" t="n">
+        <v>1.236476043276661</v>
+      </c>
+      <c r="K63" t="n">
         <v>12</v>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
       </c>
       <c r="N63" t="n">
         <v>1</v>
       </c>
       <c r="O63" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" t="n">
         <v>8</v>
       </c>
-      <c r="P63" t="n">
+      <c r="Q63" t="n">
         <v>6.5</v>
       </c>
-      <c r="Q63" t="inlineStr">
+      <c r="R63" t="inlineStr">
         <is>
           <t>0:06</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr">
+      <c r="S63" t="inlineStr">
         <is>
           <t>0:06:28</t>
         </is>
@@ -5118,36 +5309,39 @@
         <v>330</v>
       </c>
       <c r="J64" t="n">
+        <v>1.501023425062543</v>
+      </c>
+      <c r="K64" t="n">
         <v>100</v>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
-      </c>
-      <c r="M64" t="n">
-        <v>7</v>
       </c>
       <c r="N64" t="n">
         <v>7</v>
       </c>
       <c r="O64" t="n">
+        <v>7</v>
+      </c>
+      <c r="P64" t="n">
         <v>47.1</v>
       </c>
-      <c r="P64" t="n">
+      <c r="Q64" t="n">
         <v>31.4</v>
       </c>
-      <c r="Q64" t="inlineStr">
+      <c r="R64" t="inlineStr">
         <is>
           <t>0:31</t>
         </is>
       </c>
-      <c r="R64" t="inlineStr">
+      <c r="S64" t="inlineStr">
         <is>
           <t>3:39:51</t>
         </is>
